--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col4a5-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col4a5-Cd93.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.02193933333333333</v>
+        <v>0.1548163333333333</v>
       </c>
       <c r="H2">
-        <v>0.065818</v>
+        <v>0.464449</v>
       </c>
       <c r="I2">
-        <v>0.004619439475538019</v>
+        <v>0.04476815357596578</v>
       </c>
       <c r="J2">
-        <v>0.004619439475538019</v>
+        <v>0.04476815357596578</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>127.984071</v>
+        <v>211.7369283333333</v>
       </c>
       <c r="N2">
-        <v>383.952213</v>
+        <v>635.210785</v>
       </c>
       <c r="O2">
-        <v>0.4594739502473106</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="P2">
-        <v>0.4594739502473105</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="Q2">
-        <v>2.807885195026</v>
+        <v>32.78033487582945</v>
       </c>
       <c r="R2">
-        <v>25.270966755234</v>
+        <v>295.023013882465</v>
       </c>
       <c r="S2">
-        <v>0.002122512103753818</v>
+        <v>0.02109205927554773</v>
       </c>
       <c r="T2">
-        <v>0.002122512103753818</v>
+        <v>0.02109205927554773</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.02193933333333333</v>
+        <v>0.1548163333333333</v>
       </c>
       <c r="H3">
-        <v>0.065818</v>
+        <v>0.464449</v>
       </c>
       <c r="I3">
-        <v>0.004619439475538019</v>
+        <v>0.04476815357596578</v>
       </c>
       <c r="J3">
-        <v>0.004619439475538019</v>
+        <v>0.04476815357596578</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>60.45343933333334</v>
+        <v>76.35132866666667</v>
       </c>
       <c r="N3">
-        <v>181.360318</v>
+        <v>229.053986</v>
       </c>
       <c r="O3">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="P3">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="Q3">
-        <v>1.326308156680445</v>
+        <v>11.82043274930156</v>
       </c>
       <c r="R3">
-        <v>11.936773410124</v>
+        <v>106.383894743714</v>
       </c>
       <c r="S3">
-        <v>0.001002571302006382</v>
+        <v>0.0076056961942365</v>
       </c>
       <c r="T3">
-        <v>0.001002571302006381</v>
+        <v>0.007605696194236499</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.02193933333333333</v>
+        <v>0.1548163333333333</v>
       </c>
       <c r="H4">
-        <v>0.065818</v>
+        <v>0.464449</v>
       </c>
       <c r="I4">
-        <v>0.004619439475538019</v>
+        <v>0.04476815357596578</v>
       </c>
       <c r="J4">
-        <v>0.004619439475538019</v>
+        <v>0.04476815357596578</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.469651333333333</v>
+        <v>1.001605</v>
       </c>
       <c r="N4">
-        <v>7.408954</v>
+        <v>3.004815</v>
       </c>
       <c r="O4">
-        <v>0.008866263160672584</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="P4">
-        <v>0.008866263160672582</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="Q4">
-        <v>0.05418250381911111</v>
+        <v>0.1550648135483333</v>
       </c>
       <c r="R4">
-        <v>0.487642534372</v>
+        <v>1.395583321935</v>
       </c>
       <c r="S4">
-        <v>4.095716604491942E-05</v>
+        <v>9.977433883156586E-05</v>
       </c>
       <c r="T4">
-        <v>4.095716604491941E-05</v>
+        <v>9.977433883156586E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.02193933333333333</v>
+        <v>0.1548163333333333</v>
       </c>
       <c r="H5">
-        <v>0.065818</v>
+        <v>0.464449</v>
       </c>
       <c r="I5">
-        <v>0.004619439475538019</v>
+        <v>0.04476815357596578</v>
       </c>
       <c r="J5">
-        <v>0.004619439475538019</v>
+        <v>0.04476815357596578</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.25780433333334</v>
+        <v>25.733869</v>
       </c>
       <c r="N5">
-        <v>84.77341300000001</v>
+        <v>77.201607</v>
       </c>
       <c r="O5">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="P5">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="Q5">
-        <v>0.6199573885371112</v>
+        <v>3.984023241060333</v>
       </c>
       <c r="R5">
-        <v>5.579616496834</v>
+        <v>35.856209169543</v>
       </c>
       <c r="S5">
-        <v>0.0004686327857394622</v>
+        <v>0.002563465403081184</v>
       </c>
       <c r="T5">
-        <v>0.000468632785739462</v>
+        <v>0.002563465403081184</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.02193933333333333</v>
+        <v>0.1548163333333333</v>
       </c>
       <c r="H6">
-        <v>0.065818</v>
+        <v>0.464449</v>
       </c>
       <c r="I6">
-        <v>0.004619439475538019</v>
+        <v>0.04476815357596578</v>
       </c>
       <c r="J6">
-        <v>0.004619439475538019</v>
+        <v>0.04476815357596578</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>59.37981533333333</v>
+        <v>134.590487</v>
       </c>
       <c r="N6">
-        <v>178.139446</v>
+        <v>403.771461</v>
       </c>
       <c r="O6">
-        <v>0.2131787034353869</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="P6">
-        <v>0.2131787034353868</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="Q6">
-        <v>1.302753561869778</v>
+        <v>20.83680569888767</v>
       </c>
       <c r="R6">
-        <v>11.724782056828</v>
+        <v>187.531251289989</v>
       </c>
       <c r="S6">
-        <v>0.0009847661179934384</v>
+        <v>0.01340715836426881</v>
       </c>
       <c r="T6">
-        <v>0.0009847661179934379</v>
+        <v>0.01340715836426881</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.059667666666667</v>
+        <v>3.059667666666666</v>
       </c>
       <c r="H7">
-        <v>9.179003000000002</v>
+        <v>9.179003</v>
       </c>
       <c r="I7">
-        <v>0.6442287642329136</v>
+        <v>0.8847624087429419</v>
       </c>
       <c r="J7">
-        <v>0.6442287642329136</v>
+        <v>0.8847624087429419</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>127.984071</v>
+        <v>211.7369283333333</v>
       </c>
       <c r="N7">
-        <v>383.952213</v>
+        <v>635.210785</v>
       </c>
       <c r="O7">
-        <v>0.4594739502473106</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="P7">
-        <v>0.4594739502473105</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="Q7">
-        <v>391.5887238870711</v>
+        <v>647.8446334608172</v>
       </c>
       <c r="R7">
-        <v>3524.29851498364</v>
+        <v>5830.601701147355</v>
       </c>
       <c r="S7">
-        <v>0.2960063351650402</v>
+        <v>0.4168467912869452</v>
       </c>
       <c r="T7">
-        <v>0.2960063351650401</v>
+        <v>0.4168467912869452</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.059667666666667</v>
+        <v>3.059667666666666</v>
       </c>
       <c r="H8">
-        <v>9.179003000000002</v>
+        <v>9.179003</v>
       </c>
       <c r="I8">
-        <v>0.6442287642329136</v>
+        <v>0.8847624087429419</v>
       </c>
       <c r="J8">
-        <v>0.6442287642329136</v>
+        <v>0.8847624087429419</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>60.45343933333334</v>
+        <v>76.35132866666667</v>
       </c>
       <c r="N8">
-        <v>181.360318</v>
+        <v>229.053986</v>
       </c>
       <c r="O8">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="P8">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="Q8">
-        <v>184.9674336669949</v>
+        <v>233.6096916284398</v>
       </c>
       <c r="R8">
-        <v>1664.706903002954</v>
+        <v>2102.487224655958</v>
       </c>
       <c r="S8">
-        <v>0.1398189703246906</v>
+        <v>0.1503129690966832</v>
       </c>
       <c r="T8">
-        <v>0.1398189703246905</v>
+        <v>0.1503129690966832</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.059667666666667</v>
+        <v>3.059667666666666</v>
       </c>
       <c r="H9">
-        <v>9.179003000000002</v>
+        <v>9.179003</v>
       </c>
       <c r="I9">
-        <v>0.6442287642329136</v>
+        <v>0.8847624087429419</v>
       </c>
       <c r="J9">
-        <v>0.6442287642329136</v>
+        <v>0.8847624087429419</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.469651333333333</v>
+        <v>1.001605</v>
       </c>
       <c r="N9">
-        <v>7.408954</v>
+        <v>3.004815</v>
       </c>
       <c r="O9">
-        <v>0.008866263160672584</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="P9">
-        <v>0.008866263160672582</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="Q9">
-        <v>7.556312332540223</v>
+        <v>3.064578433271666</v>
       </c>
       <c r="R9">
-        <v>68.00681099286201</v>
+        <v>27.581205899445</v>
       </c>
       <c r="S9">
-        <v>0.005711901759363906</v>
+        <v>0.001971861184883506</v>
       </c>
       <c r="T9">
-        <v>0.005711901759363904</v>
+        <v>0.001971861184883506</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.059667666666667</v>
+        <v>3.059667666666666</v>
       </c>
       <c r="H10">
-        <v>9.179003000000002</v>
+        <v>9.179003</v>
       </c>
       <c r="I10">
-        <v>0.6442287642329136</v>
+        <v>0.8847624087429419</v>
       </c>
       <c r="J10">
-        <v>0.6442287642329136</v>
+        <v>0.8847624087429419</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.25780433333334</v>
+        <v>25.733869</v>
       </c>
       <c r="N10">
-        <v>84.77341300000001</v>
+        <v>77.201607</v>
       </c>
       <c r="O10">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="P10">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="Q10">
-        <v>86.45949024969325</v>
+        <v>78.73708691753566</v>
       </c>
       <c r="R10">
-        <v>778.1354122472392</v>
+        <v>708.6337822578209</v>
       </c>
       <c r="S10">
-        <v>0.06535570430886507</v>
+        <v>0.05066230441938382</v>
       </c>
       <c r="T10">
-        <v>0.06535570430886505</v>
+        <v>0.05066230441938382</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.059667666666667</v>
+        <v>3.059667666666666</v>
       </c>
       <c r="H11">
-        <v>9.179003000000002</v>
+        <v>9.179003</v>
       </c>
       <c r="I11">
-        <v>0.6442287642329136</v>
+        <v>0.8847624087429419</v>
       </c>
       <c r="J11">
-        <v>0.6442287642329136</v>
+        <v>0.8847624087429419</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.37981533333333</v>
+        <v>134.590487</v>
       </c>
       <c r="N11">
-        <v>178.139446</v>
+        <v>403.771461</v>
       </c>
       <c r="O11">
-        <v>0.2131787034353869</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="P11">
-        <v>0.2131787034353868</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="Q11">
-        <v>181.6825010280376</v>
+        <v>411.8021613148203</v>
       </c>
       <c r="R11">
-        <v>1635.142509252338</v>
+        <v>3706.219451833383</v>
       </c>
       <c r="S11">
-        <v>0.1373358526749541</v>
+        <v>0.2649684827550463</v>
       </c>
       <c r="T11">
-        <v>0.137335852674954</v>
+        <v>0.2649684827550463</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.667742666666667</v>
+        <v>0.243696</v>
       </c>
       <c r="H12">
-        <v>5.003228</v>
+        <v>0.731088</v>
       </c>
       <c r="I12">
-        <v>0.3511517962915484</v>
+        <v>0.07046943768109237</v>
       </c>
       <c r="J12">
-        <v>0.3511517962915484</v>
+        <v>0.07046943768109236</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>127.984071</v>
+        <v>211.7369283333333</v>
       </c>
       <c r="N12">
-        <v>383.952213</v>
+        <v>635.210785</v>
       </c>
       <c r="O12">
-        <v>0.4594739502473106</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="P12">
-        <v>0.4594739502473105</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="Q12">
-        <v>213.444495860396</v>
+        <v>51.59944248712</v>
       </c>
       <c r="R12">
-        <v>1921.000462743564</v>
+        <v>464.39498238408</v>
       </c>
       <c r="S12">
-        <v>0.1613451029785166</v>
+        <v>0.0332009573314651</v>
       </c>
       <c r="T12">
-        <v>0.1613451029785166</v>
+        <v>0.03320095733146509</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.667742666666667</v>
+        <v>0.243696</v>
       </c>
       <c r="H13">
-        <v>5.003228</v>
+        <v>0.731088</v>
       </c>
       <c r="I13">
-        <v>0.3511517962915484</v>
+        <v>0.07046943768109237</v>
       </c>
       <c r="J13">
-        <v>0.3511517962915484</v>
+        <v>0.07046943768109236</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>60.45343933333334</v>
+        <v>76.35132866666667</v>
       </c>
       <c r="N13">
-        <v>181.360318</v>
+        <v>229.053986</v>
       </c>
       <c r="O13">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="P13">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="Q13">
-        <v>100.8207801229449</v>
+        <v>18.606513390752</v>
       </c>
       <c r="R13">
-        <v>907.387021106504</v>
+        <v>167.458620516768</v>
       </c>
       <c r="S13">
-        <v>0.07621156538021186</v>
+        <v>0.01197210720499339</v>
       </c>
       <c r="T13">
-        <v>0.07621156538021184</v>
+        <v>0.01197210720499338</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.667742666666667</v>
+        <v>0.243696</v>
       </c>
       <c r="H14">
-        <v>5.003228</v>
+        <v>0.731088</v>
       </c>
       <c r="I14">
-        <v>0.3511517962915484</v>
+        <v>0.07046943768109237</v>
       </c>
       <c r="J14">
-        <v>0.3511517962915484</v>
+        <v>0.07046943768109236</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.469651333333333</v>
+        <v>1.001605</v>
       </c>
       <c r="N14">
-        <v>7.408954</v>
+        <v>3.004815</v>
       </c>
       <c r="O14">
-        <v>0.008866263160672584</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="P14">
-        <v>0.008866263160672582</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="Q14">
-        <v>4.118742900390222</v>
+        <v>0.24408713208</v>
       </c>
       <c r="R14">
-        <v>37.068686103512</v>
+        <v>2.19678418872</v>
       </c>
       <c r="S14">
-        <v>0.003113404235263759</v>
+        <v>0.0001570545352184886</v>
       </c>
       <c r="T14">
-        <v>0.003113404235263758</v>
+        <v>0.0001570545352184886</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.667742666666667</v>
+        <v>0.243696</v>
       </c>
       <c r="H15">
-        <v>5.003228</v>
+        <v>0.731088</v>
       </c>
       <c r="I15">
-        <v>0.3511517962915484</v>
+        <v>0.07046943768109237</v>
       </c>
       <c r="J15">
-        <v>0.3511517962915484</v>
+        <v>0.07046943768109236</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>28.25780433333334</v>
+        <v>25.733869</v>
       </c>
       <c r="N15">
-        <v>84.77341300000001</v>
+        <v>77.201607</v>
       </c>
       <c r="O15">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="P15">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="Q15">
-        <v>47.12674595301822</v>
+        <v>6.271240939824</v>
       </c>
       <c r="R15">
-        <v>424.140713577164</v>
+        <v>56.44116845841599</v>
       </c>
       <c r="S15">
-        <v>0.0356236390551168</v>
+        <v>0.004035144428360954</v>
       </c>
       <c r="T15">
-        <v>0.03562363905511679</v>
+        <v>0.004035144428360953</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.667742666666667</v>
+        <v>0.243696</v>
       </c>
       <c r="H16">
-        <v>5.003228</v>
+        <v>0.731088</v>
       </c>
       <c r="I16">
-        <v>0.3511517962915484</v>
+        <v>0.07046943768109237</v>
       </c>
       <c r="J16">
-        <v>0.3511517962915484</v>
+        <v>0.07046943768109236</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>59.37981533333333</v>
+        <v>134.590487</v>
       </c>
       <c r="N16">
-        <v>178.139446</v>
+        <v>403.771461</v>
       </c>
       <c r="O16">
-        <v>0.2131787034353869</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="P16">
-        <v>0.2131787034353868</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="Q16">
-        <v>99.03025157018754</v>
+        <v>32.799163319952</v>
       </c>
       <c r="R16">
-        <v>891.272264131688</v>
+        <v>295.192469879568</v>
       </c>
       <c r="S16">
-        <v>0.07485808464243937</v>
+        <v>0.02110417418105445</v>
       </c>
       <c r="T16">
-        <v>0.07485808464243934</v>
+        <v>0.02110417418105444</v>
       </c>
     </row>
   </sheetData>
